--- a/src/result/experiment result.xlsx
+++ b/src/result/experiment result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" tabRatio="795" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9335" tabRatio="795" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ring Crossover" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="93">
   <si>
     <t xml:space="preserve">Function </t>
   </si>
@@ -309,12 +309,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +343,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -355,8 +363,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,15 +393,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,107 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +528,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,97 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,13 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,20 +884,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,15 +902,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,157 +959,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,6 +1499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,8 +1511,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1509,70 +1553,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2058,7 @@
       <c r="N3" s="108">
         <v>0.0027</v>
       </c>
-      <c r="O3" s="144">
+      <c r="O3" s="146">
         <v>65.8914649450391</v>
       </c>
     </row>
@@ -2063,28 +2083,28 @@
       <c r="H4" s="110">
         <v>6.246</v>
       </c>
-      <c r="I4" s="139">
+      <c r="I4" s="141">
         <v>11.9121645008993</v>
       </c>
       <c r="J4" s="110">
         <v>8.099</v>
       </c>
-      <c r="K4" s="139">
+      <c r="K4" s="141">
         <v>28.1795159598373</v>
       </c>
       <c r="L4" s="110">
         <v>6.389</v>
       </c>
-      <c r="M4" s="139">
+      <c r="M4" s="141">
         <v>13.3700640295421</v>
       </c>
       <c r="N4" s="110">
         <v>6.163</v>
       </c>
-      <c r="O4" s="145">
+      <c r="O4" s="147">
         <v>117.70028057157</v>
       </c>
-      <c r="Q4" s="150"/>
+      <c r="Q4" s="154"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="112"/>
@@ -2107,25 +2127,25 @@
       <c r="H5" s="114">
         <v>6.208</v>
       </c>
-      <c r="I5" s="140">
+      <c r="I5" s="142">
         <v>4.97074635114564</v>
       </c>
       <c r="J5" s="114">
         <v>2.81</v>
       </c>
-      <c r="K5" s="140">
+      <c r="K5" s="142">
         <v>12.3759452683365</v>
       </c>
       <c r="L5" s="114">
         <v>5.589</v>
       </c>
-      <c r="M5" s="140">
+      <c r="M5" s="142">
         <v>3.56505016494343</v>
       </c>
       <c r="N5" s="114">
         <v>0.3299</v>
       </c>
-      <c r="O5" s="146">
+      <c r="O5" s="148">
         <v>97.1086752893185</v>
       </c>
     </row>
@@ -2133,46 +2153,46 @@
       <c r="A6" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="128">
+      <c r="D6" s="140">
         <v>70.52</v>
       </c>
       <c r="E6" s="136">
         <v>60.331559</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="140">
         <v>68.63</v>
       </c>
       <c r="G6" s="136">
         <v>46.629852</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="140">
         <v>64.04</v>
       </c>
-      <c r="I6" s="129">
+      <c r="I6" s="149">
         <v>13.4567043517467</v>
       </c>
-      <c r="J6" s="128">
+      <c r="J6" s="140">
         <v>0.024</v>
       </c>
-      <c r="K6" s="129">
+      <c r="K6" s="149">
         <v>24.748421853285</v>
       </c>
-      <c r="L6" s="128">
+      <c r="L6" s="140">
         <v>73.71</v>
       </c>
-      <c r="M6" s="130">
+      <c r="M6" s="150">
         <v>4.32643010034693</v>
       </c>
-      <c r="N6" s="128">
+      <c r="N6" s="140">
         <v>0.1023</v>
       </c>
-      <c r="O6" s="145">
+      <c r="O6" s="147">
         <v>1200.77222807041</v>
       </c>
     </row>
@@ -2197,25 +2217,25 @@
       <c r="H7" s="110">
         <v>80.4</v>
       </c>
-      <c r="I7" s="139">
+      <c r="I7" s="141">
         <v>226.539753851143</v>
       </c>
       <c r="J7" s="110">
         <v>87.41</v>
       </c>
-      <c r="K7" s="139">
+      <c r="K7" s="141">
         <v>356.706536175126</v>
       </c>
       <c r="L7" s="110">
         <v>89.18</v>
       </c>
-      <c r="M7" s="139">
+      <c r="M7" s="141">
         <v>62.2152240402045</v>
       </c>
       <c r="N7" s="110">
         <v>106.8</v>
       </c>
-      <c r="O7" s="145">
+      <c r="O7" s="147">
         <v>1901.50739846092</v>
       </c>
     </row>
@@ -2240,25 +2260,25 @@
       <c r="H8" s="114">
         <v>64.04</v>
       </c>
-      <c r="I8" s="140">
+      <c r="I8" s="142">
         <v>48.875705439432</v>
       </c>
       <c r="J8" s="114">
         <v>5.706</v>
       </c>
-      <c r="K8" s="140">
+      <c r="K8" s="142">
         <v>112.007876032323</v>
       </c>
       <c r="L8" s="114">
         <v>73.72</v>
       </c>
-      <c r="M8" s="140">
+      <c r="M8" s="142">
         <v>28.3953140674309</v>
       </c>
       <c r="N8" s="114">
         <v>11.73</v>
       </c>
-      <c r="O8" s="146">
+      <c r="O8" s="148">
         <v>1502.15628235684</v>
       </c>
     </row>
@@ -2305,7 +2325,7 @@
       <c r="N9" s="108">
         <v>4.577</v>
       </c>
-      <c r="O9" s="144">
+      <c r="O9" s="146">
         <v>154647.66534039</v>
       </c>
     </row>
@@ -2318,37 +2338,37 @@
       <c r="D10" s="110">
         <v>261.7</v>
       </c>
-      <c r="E10" s="139">
+      <c r="E10" s="141">
         <v>98199.6487514496</v>
       </c>
       <c r="F10" s="110">
         <v>204.8</v>
       </c>
-      <c r="G10" s="139">
+      <c r="G10" s="141">
         <v>101276.838933367</v>
       </c>
       <c r="H10" s="110">
         <v>59.24</v>
       </c>
-      <c r="I10" s="139">
+      <c r="I10" s="141">
         <v>25916.3238747406</v>
       </c>
       <c r="J10" s="110">
         <v>381</v>
       </c>
-      <c r="K10" s="139">
+      <c r="K10" s="141">
         <v>86201.6018039536</v>
       </c>
       <c r="L10" s="110">
         <v>47.94</v>
       </c>
-      <c r="M10" s="139">
+      <c r="M10" s="141">
         <v>19672.8147429999</v>
       </c>
       <c r="N10" s="110">
         <v>108.2</v>
       </c>
-      <c r="O10" s="145">
+      <c r="O10" s="147">
         <v>295478.321758351</v>
       </c>
     </row>
@@ -2361,37 +2381,37 @@
       <c r="D11" s="114">
         <v>37.02</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="142">
         <v>46943.3370331246</v>
       </c>
       <c r="F11" s="114">
         <v>16.22</v>
       </c>
-      <c r="G11" s="140">
+      <c r="G11" s="142">
         <v>38624.4760434918</v>
       </c>
       <c r="H11" s="114">
         <v>22.87</v>
       </c>
-      <c r="I11" s="140">
+      <c r="I11" s="142">
         <v>8215.74409037275</v>
       </c>
       <c r="J11" s="114">
         <v>17.58</v>
       </c>
-      <c r="K11" s="140">
+      <c r="K11" s="142">
         <v>17975.8765615599</v>
       </c>
       <c r="L11" s="114">
         <v>24.37</v>
       </c>
-      <c r="M11" s="140">
+      <c r="M11" s="142">
         <v>6234.69430920148</v>
       </c>
       <c r="N11" s="114">
         <v>18.97</v>
       </c>
-      <c r="O11" s="146">
+      <c r="O11" s="148">
         <v>228903.233193021</v>
       </c>
     </row>
@@ -2438,7 +2458,7 @@
       <c r="N12" s="108">
         <v>-117.8</v>
       </c>
-      <c r="O12" s="144">
+      <c r="O12" s="146">
         <v>-195.13422</v>
       </c>
     </row>
@@ -2451,37 +2471,37 @@
       <c r="D13" s="110">
         <v>-29.46</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="141">
         <v>-108.960263</v>
       </c>
       <c r="F13" s="110">
         <v>-26.85</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="141">
         <v>-104.444544</v>
       </c>
       <c r="H13" s="110">
         <v>-27.91</v>
       </c>
-      <c r="I13" s="139">
+      <c r="I13" s="141">
         <v>-25.247861</v>
       </c>
       <c r="J13" s="110">
         <v>-26.1</v>
       </c>
-      <c r="K13" s="139">
+      <c r="K13" s="141">
         <v>-210.017649</v>
       </c>
       <c r="L13" s="110">
         <v>-27.72</v>
       </c>
-      <c r="M13" s="139">
+      <c r="M13" s="141">
         <v>-25.238287</v>
       </c>
       <c r="N13" s="110">
         <v>-27.75</v>
       </c>
-      <c r="O13" s="145">
+      <c r="O13" s="147">
         <v>-123.963195</v>
       </c>
     </row>
@@ -2494,42 +2514,42 @@
       <c r="D14" s="114">
         <v>-115.6</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="142">
         <v>-144.252724</v>
       </c>
       <c r="F14" s="114">
         <v>-115.4</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="142">
         <v>-153.079792</v>
       </c>
       <c r="H14" s="114">
         <v>-114</v>
       </c>
-      <c r="I14" s="140">
+      <c r="I14" s="142">
         <v>-61.639065</v>
       </c>
       <c r="J14" s="114">
         <v>-117.1</v>
       </c>
-      <c r="K14" s="140">
+      <c r="K14" s="142">
         <v>-258.641108</v>
       </c>
       <c r="L14" s="114">
         <v>-113.1</v>
       </c>
-      <c r="M14" s="140">
+      <c r="M14" s="142">
         <v>-51.198507</v>
       </c>
       <c r="N14" s="114">
         <v>-117.7</v>
       </c>
-      <c r="O14" s="146">
+      <c r="O14" s="148">
         <v>-156.199454</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="143" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="107" t="s">
@@ -2571,7 +2591,7 @@
       <c r="N15" s="108">
         <v>2.669</v>
       </c>
-      <c r="O15" s="144">
+      <c r="O15" s="146">
         <v>125.701081678641</v>
       </c>
     </row>
@@ -2584,37 +2604,37 @@
       <c r="D16" s="110">
         <v>241.3</v>
       </c>
-      <c r="E16" s="139">
+      <c r="E16" s="141">
         <v>176.766026234169</v>
       </c>
       <c r="F16" s="110">
         <v>257.7</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="141">
         <v>183.256938753906</v>
       </c>
       <c r="H16" s="110">
         <v>256.6</v>
       </c>
-      <c r="I16" s="139">
+      <c r="I16" s="141">
         <v>118.845622656941</v>
       </c>
       <c r="J16" s="110">
         <v>173.1</v>
       </c>
-      <c r="K16" s="139">
+      <c r="K16" s="141">
         <v>221.656407270206</v>
       </c>
       <c r="L16" s="110">
         <v>251.4</v>
       </c>
-      <c r="M16" s="139">
+      <c r="M16" s="141">
         <v>106.180540162374</v>
       </c>
       <c r="N16" s="110">
         <v>232.5</v>
       </c>
-      <c r="O16" s="145">
+      <c r="O16" s="147">
         <v>333.405519519672</v>
       </c>
     </row>
@@ -2627,42 +2647,42 @@
       <c r="D17" s="114">
         <v>111.3</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="142">
         <v>131.249049276321</v>
       </c>
       <c r="F17" s="114">
         <v>52.15</v>
       </c>
-      <c r="G17" s="140">
+      <c r="G17" s="142">
         <v>123.930432231649</v>
       </c>
       <c r="H17" s="114">
         <v>187.3</v>
       </c>
-      <c r="I17" s="140">
+      <c r="I17" s="142">
         <v>75.3185612618339</v>
       </c>
       <c r="J17" s="114">
         <v>31.98</v>
       </c>
-      <c r="K17" s="140">
+      <c r="K17" s="142">
         <v>147.272709308365</v>
       </c>
       <c r="L17" s="114">
         <v>154.1</v>
       </c>
-      <c r="M17" s="140">
+      <c r="M17" s="142">
         <v>68.1726933021853</v>
       </c>
       <c r="N17" s="114">
         <v>3.691</v>
       </c>
-      <c r="O17" s="146">
+      <c r="O17" s="148">
         <v>243.705611867695</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="143" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="107" t="s">
@@ -2704,7 +2724,7 @@
       <c r="N18" s="108">
         <v>28.59</v>
       </c>
-      <c r="O18" s="147">
+      <c r="O18" s="151">
         <v>1458.219468</v>
       </c>
     </row>
@@ -2717,13 +2737,13 @@
       <c r="D19" s="110">
         <v>269.3</v>
       </c>
-      <c r="E19" s="139">
+      <c r="E19" s="141">
         <v>1032.54858885882</v>
       </c>
       <c r="F19" s="110">
         <v>390.3</v>
       </c>
-      <c r="G19" s="139">
+      <c r="G19" s="141">
         <v>1676.00426417611</v>
       </c>
       <c r="H19" s="110">
@@ -2735,19 +2755,19 @@
       <c r="J19" s="110">
         <v>369.1</v>
       </c>
-      <c r="K19" s="139">
+      <c r="K19" s="141">
         <v>1478.19598820443</v>
       </c>
       <c r="L19" s="110">
         <v>260.3</v>
       </c>
-      <c r="M19" s="139">
+      <c r="M19" s="141">
         <v>182.840423303567</v>
       </c>
       <c r="N19" s="110">
         <v>316.1</v>
       </c>
-      <c r="O19" s="148">
+      <c r="O19" s="152">
         <v>4019.975187</v>
       </c>
     </row>
@@ -2760,13 +2780,13 @@
       <c r="D20" s="114">
         <v>73.08</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="142">
         <v>485.147368707033</v>
       </c>
       <c r="F20" s="114">
         <v>78.39</v>
       </c>
-      <c r="G20" s="140">
+      <c r="G20" s="142">
         <v>532.703277259505</v>
       </c>
       <c r="H20" s="114">
@@ -2778,55 +2798,55 @@
       <c r="J20" s="114">
         <v>117.5</v>
       </c>
-      <c r="K20" s="140">
+      <c r="K20" s="142">
         <v>427.812701585942</v>
       </c>
       <c r="L20" s="114">
         <v>27.12</v>
       </c>
-      <c r="M20" s="140">
+      <c r="M20" s="142">
         <v>94.5980790296842</v>
       </c>
       <c r="N20" s="114">
         <v>32.69</v>
       </c>
-      <c r="O20" s="149">
+      <c r="O20" s="153">
         <v>2677.369081</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="142"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="142"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
     </row>
     <row r="23" customFormat="1"/>
     <row r="24" customFormat="1"/>
@@ -2845,1137 +2865,1137 @@
     <row r="37" customFormat="1"/>
     <row r="38" customFormat="1"/>
     <row r="45" spans="1:15">
-      <c r="A45" s="142"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="142"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="142"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="145"/>
+      <c r="O45" s="144"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="142"/>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
-      <c r="L46" s="142"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
-      <c r="O46" s="142"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="144"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="142"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="144"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="142"/>
-      <c r="B48" s="142"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="144"/>
+      <c r="N48" s="144"/>
+      <c r="O48" s="144"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="142"/>
-      <c r="B49" s="142"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="142"/>
-      <c r="L49" s="142"/>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="142"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="144"/>
+      <c r="N49" s="144"/>
+      <c r="O49" s="144"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="142"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
+      <c r="A50" s="144"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="144"/>
+      <c r="O50" s="144"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="144"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="142"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="144"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="142"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="143"/>
-      <c r="K53" s="142"/>
-      <c r="L53" s="142"/>
-      <c r="M53" s="142"/>
-      <c r="N53" s="142"/>
-      <c r="O53" s="142"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="144"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="142"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="142"/>
-      <c r="M54" s="142"/>
-      <c r="N54" s="142"/>
-      <c r="O54" s="142"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
+      <c r="N54" s="144"/>
+      <c r="O54" s="144"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="142"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="142"/>
-      <c r="L55" s="142"/>
-      <c r="M55" s="142"/>
-      <c r="N55" s="142"/>
-      <c r="O55" s="142"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="142"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="142"/>
-      <c r="L56" s="142"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="142"/>
-      <c r="O56" s="142"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="144"/>
+      <c r="N56" s="144"/>
+      <c r="O56" s="144"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="142"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="143"/>
-      <c r="K57" s="142"/>
-      <c r="L57" s="142"/>
-      <c r="M57" s="142"/>
-      <c r="N57" s="142"/>
-      <c r="O57" s="142"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="142"/>
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="142"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="142"/>
-      <c r="L58" s="142"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="142"/>
-      <c r="O58" s="142"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="142"/>
-      <c r="R58" s="142"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="142"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="142"/>
-      <c r="L59" s="142"/>
-      <c r="M59" s="142"/>
-      <c r="N59" s="142"/>
-      <c r="O59" s="142"/>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="142"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="144"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="142"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="142"/>
-      <c r="M60" s="142"/>
-      <c r="N60" s="142"/>
-      <c r="O60" s="142"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="142"/>
-      <c r="R60" s="142"/>
+      <c r="A60" s="144"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="142"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="142"/>
-      <c r="M61" s="142"/>
-      <c r="N61" s="142"/>
-      <c r="O61" s="142"/>
-      <c r="P61" s="142"/>
-      <c r="Q61" s="142"/>
-      <c r="R61" s="142"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="144"/>
+      <c r="O61" s="144"/>
+      <c r="P61" s="144"/>
+      <c r="Q61" s="144"/>
+      <c r="R61" s="144"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="142"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="143"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="143"/>
-      <c r="K62" s="142"/>
-      <c r="L62" s="142"/>
-      <c r="M62" s="142"/>
-      <c r="N62" s="142"/>
-      <c r="O62" s="142"/>
-      <c r="P62" s="142"/>
-      <c r="Q62" s="142"/>
-      <c r="R62" s="142"/>
+      <c r="A62" s="144"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="144"/>
+      <c r="N62" s="144"/>
+      <c r="O62" s="144"/>
+      <c r="P62" s="144"/>
+      <c r="Q62" s="144"/>
+      <c r="R62" s="144"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="142"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="143"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="143"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="143"/>
-      <c r="K63" s="142"/>
-      <c r="L63" s="142"/>
-      <c r="M63" s="142"/>
-      <c r="N63" s="142"/>
-      <c r="O63" s="142"/>
-      <c r="P63" s="142"/>
-      <c r="Q63" s="142"/>
-      <c r="R63" s="142"/>
+      <c r="A63" s="144"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+      <c r="O63" s="144"/>
+      <c r="P63" s="144"/>
+      <c r="Q63" s="144"/>
+      <c r="R63" s="144"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="142"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="142"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="143"/>
-      <c r="K64" s="142"/>
-      <c r="L64" s="142"/>
-      <c r="M64" s="142"/>
-      <c r="N64" s="142"/>
-      <c r="O64" s="142"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="142"/>
-      <c r="R64" s="142"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="144"/>
+      <c r="O64" s="144"/>
+      <c r="P64" s="144"/>
+      <c r="Q64" s="144"/>
+      <c r="R64" s="144"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="142"/>
-      <c r="B65" s="142"/>
-      <c r="C65" s="142"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="142"/>
-      <c r="L65" s="142"/>
-      <c r="M65" s="142"/>
-      <c r="N65" s="142"/>
-      <c r="O65" s="142"/>
-      <c r="P65" s="142"/>
-      <c r="Q65" s="142"/>
-      <c r="R65" s="142"/>
+      <c r="A65" s="144"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="144"/>
+      <c r="O65" s="144"/>
+      <c r="P65" s="144"/>
+      <c r="Q65" s="144"/>
+      <c r="R65" s="144"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="142"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="143"/>
-      <c r="K66" s="142"/>
-      <c r="L66" s="142"/>
-      <c r="M66" s="142"/>
-      <c r="N66" s="142"/>
-      <c r="O66" s="142"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="142"/>
-      <c r="R66" s="142"/>
+      <c r="A66" s="144"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
+      <c r="O66" s="144"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="144"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="142"/>
-      <c r="B67" s="142"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="143"/>
-      <c r="I67" s="142"/>
-      <c r="J67" s="143"/>
-      <c r="K67" s="142"/>
-      <c r="L67" s="142"/>
-      <c r="M67" s="142"/>
-      <c r="N67" s="142"/>
-      <c r="O67" s="142"/>
-      <c r="P67" s="142"/>
-      <c r="Q67" s="142"/>
-      <c r="R67" s="142"/>
+      <c r="A67" s="144"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="145"/>
+      <c r="K67" s="144"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="144"/>
+      <c r="O67" s="144"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="144"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="142"/>
-      <c r="B68" s="142"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="143"/>
-      <c r="G68" s="142"/>
-      <c r="H68" s="143"/>
-      <c r="I68" s="142"/>
-      <c r="J68" s="143"/>
-      <c r="K68" s="142"/>
-      <c r="L68" s="142"/>
-      <c r="M68" s="142"/>
-      <c r="N68" s="142"/>
-      <c r="O68" s="142"/>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="142"/>
-      <c r="R68" s="142"/>
+      <c r="A68" s="144"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="145"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="145"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="145"/>
+      <c r="K68" s="144"/>
+      <c r="L68" s="144"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="144"/>
+      <c r="O68" s="144"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="144"/>
+      <c r="R68" s="144"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="142"/>
-      <c r="B69" s="142"/>
-      <c r="C69" s="142"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="142"/>
-      <c r="L69" s="142"/>
-      <c r="M69" s="142"/>
-      <c r="N69" s="142"/>
-      <c r="O69" s="142"/>
-      <c r="P69" s="142"/>
-      <c r="Q69" s="142"/>
-      <c r="R69" s="142"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="145"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="145"/>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="144"/>
+      <c r="N69" s="144"/>
+      <c r="O69" s="144"/>
+      <c r="P69" s="144"/>
+      <c r="Q69" s="144"/>
+      <c r="R69" s="144"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="142"/>
-      <c r="B70" s="142"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="143"/>
-      <c r="I70" s="142"/>
-      <c r="J70" s="143"/>
-      <c r="K70" s="142"/>
-      <c r="L70" s="142"/>
-      <c r="M70" s="142"/>
-      <c r="N70" s="142"/>
-      <c r="O70" s="142"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="142"/>
-      <c r="R70" s="142"/>
+      <c r="A70" s="144"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="145"/>
+      <c r="G70" s="144"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="144"/>
+      <c r="L70" s="144"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="144"/>
+      <c r="O70" s="144"/>
+      <c r="P70" s="144"/>
+      <c r="Q70" s="144"/>
+      <c r="R70" s="144"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="142"/>
-      <c r="B71" s="142"/>
-      <c r="C71" s="142"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="142"/>
-      <c r="L71" s="142"/>
-      <c r="M71" s="142"/>
-      <c r="N71" s="142"/>
-      <c r="O71" s="142"/>
-      <c r="P71" s="142"/>
-      <c r="Q71" s="142"/>
-      <c r="R71" s="142"/>
+      <c r="A71" s="144"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="145"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="144"/>
+      <c r="N71" s="144"/>
+      <c r="O71" s="144"/>
+      <c r="P71" s="144"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="144"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="142"/>
-      <c r="B72" s="142"/>
-      <c r="C72" s="142"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="143"/>
-      <c r="G72" s="142"/>
-      <c r="H72" s="143"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="143"/>
-      <c r="K72" s="142"/>
-      <c r="L72" s="142"/>
-      <c r="M72" s="142"/>
-      <c r="N72" s="142"/>
-      <c r="O72" s="142"/>
-      <c r="P72" s="142"/>
-      <c r="Q72" s="142"/>
-      <c r="R72" s="142"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="145"/>
+      <c r="G72" s="144"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="145"/>
+      <c r="K72" s="144"/>
+      <c r="L72" s="144"/>
+      <c r="M72" s="144"/>
+      <c r="N72" s="144"/>
+      <c r="O72" s="144"/>
+      <c r="P72" s="144"/>
+      <c r="Q72" s="144"/>
+      <c r="R72" s="144"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="142"/>
-      <c r="B73" s="142"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="142"/>
-      <c r="K73" s="142"/>
-      <c r="L73" s="142"/>
-      <c r="M73" s="142"/>
-      <c r="N73" s="142"/>
-      <c r="O73" s="142"/>
-      <c r="P73" s="142"/>
-      <c r="Q73" s="142"/>
-      <c r="R73" s="142"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="144"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="144"/>
+      <c r="H73" s="144"/>
+      <c r="I73" s="144"/>
+      <c r="J73" s="144"/>
+      <c r="K73" s="144"/>
+      <c r="L73" s="144"/>
+      <c r="M73" s="144"/>
+      <c r="N73" s="144"/>
+      <c r="O73" s="144"/>
+      <c r="P73" s="144"/>
+      <c r="Q73" s="144"/>
+      <c r="R73" s="144"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="142"/>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="142"/>
-      <c r="L74" s="142"/>
-      <c r="M74" s="142"/>
-      <c r="N74" s="142"/>
-      <c r="O74" s="142"/>
-      <c r="P74" s="142"/>
-      <c r="Q74" s="142"/>
-      <c r="R74" s="142"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="144"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="144"/>
+      <c r="F74" s="144"/>
+      <c r="G74" s="144"/>
+      <c r="H74" s="144"/>
+      <c r="I74" s="144"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="144"/>
+      <c r="L74" s="144"/>
+      <c r="M74" s="144"/>
+      <c r="N74" s="144"/>
+      <c r="O74" s="144"/>
+      <c r="P74" s="144"/>
+      <c r="Q74" s="144"/>
+      <c r="R74" s="144"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="142"/>
-      <c r="B75" s="142"/>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="142"/>
-      <c r="L75" s="142"/>
-      <c r="M75" s="142"/>
-      <c r="N75" s="142"/>
-      <c r="O75" s="142"/>
-      <c r="P75" s="142"/>
-      <c r="Q75" s="142"/>
-      <c r="R75" s="142"/>
+      <c r="A75" s="144"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="144"/>
+      <c r="G75" s="144"/>
+      <c r="H75" s="144"/>
+      <c r="I75" s="144"/>
+      <c r="J75" s="144"/>
+      <c r="K75" s="144"/>
+      <c r="L75" s="144"/>
+      <c r="M75" s="144"/>
+      <c r="N75" s="144"/>
+      <c r="O75" s="144"/>
+      <c r="P75" s="144"/>
+      <c r="Q75" s="144"/>
+      <c r="R75" s="144"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="142"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="142"/>
-      <c r="H76" s="143"/>
-      <c r="I76" s="142"/>
-      <c r="J76" s="143"/>
-      <c r="K76" s="142"/>
-      <c r="L76" s="143"/>
-      <c r="M76" s="142"/>
-      <c r="N76" s="142"/>
-      <c r="O76" s="142"/>
-      <c r="P76" s="142"/>
-      <c r="Q76" s="142"/>
-      <c r="R76" s="142"/>
+      <c r="A76" s="144"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="144"/>
+      <c r="F76" s="145"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="144"/>
+      <c r="J76" s="145"/>
+      <c r="K76" s="144"/>
+      <c r="L76" s="145"/>
+      <c r="M76" s="144"/>
+      <c r="N76" s="144"/>
+      <c r="O76" s="144"/>
+      <c r="P76" s="144"/>
+      <c r="Q76" s="144"/>
+      <c r="R76" s="144"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="142"/>
-      <c r="B77" s="142"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="143"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="143"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="143"/>
-      <c r="K77" s="142"/>
-      <c r="L77" s="143"/>
-      <c r="M77" s="142"/>
-      <c r="N77" s="142"/>
-      <c r="O77" s="142"/>
-      <c r="P77" s="142"/>
-      <c r="Q77" s="142"/>
-      <c r="R77" s="142"/>
+      <c r="A77" s="144"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="145"/>
+      <c r="K77" s="144"/>
+      <c r="L77" s="145"/>
+      <c r="M77" s="144"/>
+      <c r="N77" s="144"/>
+      <c r="O77" s="144"/>
+      <c r="P77" s="144"/>
+      <c r="Q77" s="144"/>
+      <c r="R77" s="144"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="142"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="143"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="143"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="143"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="143"/>
-      <c r="K78" s="142"/>
-      <c r="L78" s="143"/>
-      <c r="M78" s="142"/>
-      <c r="N78" s="142"/>
-      <c r="O78" s="142"/>
-      <c r="P78" s="142"/>
-      <c r="Q78" s="142"/>
-      <c r="R78" s="142"/>
+      <c r="A78" s="144"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="144"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="144"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="145"/>
+      <c r="K78" s="144"/>
+      <c r="L78" s="145"/>
+      <c r="M78" s="144"/>
+      <c r="N78" s="144"/>
+      <c r="O78" s="144"/>
+      <c r="P78" s="144"/>
+      <c r="Q78" s="144"/>
+      <c r="R78" s="144"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="142"/>
-      <c r="B79" s="142"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="142"/>
-      <c r="J79" s="143"/>
-      <c r="K79" s="142"/>
-      <c r="L79" s="143"/>
-      <c r="M79" s="142"/>
-      <c r="N79" s="142"/>
-      <c r="O79" s="142"/>
-      <c r="P79" s="142"/>
-      <c r="Q79" s="142"/>
-      <c r="R79" s="142"/>
+      <c r="A79" s="144"/>
+      <c r="B79" s="144"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="144"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="145"/>
+      <c r="M79" s="144"/>
+      <c r="N79" s="144"/>
+      <c r="O79" s="144"/>
+      <c r="P79" s="144"/>
+      <c r="Q79" s="144"/>
+      <c r="R79" s="144"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="142"/>
-      <c r="B80" s="142"/>
-      <c r="C80" s="142"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="142"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="142"/>
-      <c r="J80" s="143"/>
-      <c r="K80" s="142"/>
-      <c r="L80" s="143"/>
-      <c r="M80" s="142"/>
-      <c r="N80" s="142"/>
-      <c r="O80" s="142"/>
-      <c r="P80" s="142"/>
-      <c r="Q80" s="142"/>
-      <c r="R80" s="142"/>
+      <c r="A80" s="144"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="144"/>
+      <c r="F80" s="145"/>
+      <c r="G80" s="144"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="144"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="144"/>
+      <c r="L80" s="145"/>
+      <c r="M80" s="144"/>
+      <c r="N80" s="144"/>
+      <c r="O80" s="144"/>
+      <c r="P80" s="144"/>
+      <c r="Q80" s="144"/>
+      <c r="R80" s="144"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="142"/>
-      <c r="B81" s="142"/>
-      <c r="C81" s="142"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="142"/>
-      <c r="F81" s="143"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="142"/>
-      <c r="J81" s="143"/>
-      <c r="K81" s="142"/>
-      <c r="L81" s="143"/>
-      <c r="M81" s="142"/>
-      <c r="N81" s="142"/>
-      <c r="O81" s="142"/>
-      <c r="P81" s="142"/>
-      <c r="Q81" s="142"/>
-      <c r="R81" s="142"/>
+      <c r="A81" s="144"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="145"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="145"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="145"/>
+      <c r="K81" s="144"/>
+      <c r="L81" s="145"/>
+      <c r="M81" s="144"/>
+      <c r="N81" s="144"/>
+      <c r="O81" s="144"/>
+      <c r="P81" s="144"/>
+      <c r="Q81" s="144"/>
+      <c r="R81" s="144"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="142"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="143"/>
-      <c r="I82" s="142"/>
-      <c r="J82" s="143"/>
-      <c r="K82" s="142"/>
-      <c r="L82" s="143"/>
-      <c r="M82" s="142"/>
-      <c r="N82" s="142"/>
-      <c r="O82" s="142"/>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="142"/>
-      <c r="R82" s="142"/>
+      <c r="A82" s="144"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="145"/>
+      <c r="G82" s="144"/>
+      <c r="H82" s="145"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="144"/>
+      <c r="L82" s="145"/>
+      <c r="M82" s="144"/>
+      <c r="N82" s="144"/>
+      <c r="O82" s="144"/>
+      <c r="P82" s="144"/>
+      <c r="Q82" s="144"/>
+      <c r="R82" s="144"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="142"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="143"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="143"/>
-      <c r="I83" s="142"/>
-      <c r="J83" s="143"/>
-      <c r="K83" s="142"/>
-      <c r="L83" s="143"/>
-      <c r="M83" s="142"/>
-      <c r="N83" s="142"/>
-      <c r="O83" s="142"/>
-      <c r="P83" s="142"/>
-      <c r="Q83" s="142"/>
-      <c r="R83" s="142"/>
+      <c r="A83" s="144"/>
+      <c r="B83" s="144"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="145"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="145"/>
+      <c r="G83" s="144"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="144"/>
+      <c r="J83" s="145"/>
+      <c r="K83" s="144"/>
+      <c r="L83" s="145"/>
+      <c r="M83" s="144"/>
+      <c r="N83" s="144"/>
+      <c r="O83" s="144"/>
+      <c r="P83" s="144"/>
+      <c r="Q83" s="144"/>
+      <c r="R83" s="144"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="142"/>
-      <c r="B84" s="142"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="143"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="143"/>
-      <c r="I84" s="142"/>
-      <c r="J84" s="143"/>
-      <c r="K84" s="142"/>
-      <c r="L84" s="143"/>
-      <c r="M84" s="142"/>
-      <c r="N84" s="142"/>
-      <c r="O84" s="142"/>
-      <c r="P84" s="142"/>
-      <c r="Q84" s="142"/>
-      <c r="R84" s="142"/>
+      <c r="A84" s="144"/>
+      <c r="B84" s="144"/>
+      <c r="C84" s="144"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="144"/>
+      <c r="F84" s="145"/>
+      <c r="G84" s="144"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="144"/>
+      <c r="J84" s="145"/>
+      <c r="K84" s="144"/>
+      <c r="L84" s="145"/>
+      <c r="M84" s="144"/>
+      <c r="N84" s="144"/>
+      <c r="O84" s="144"/>
+      <c r="P84" s="144"/>
+      <c r="Q84" s="144"/>
+      <c r="R84" s="144"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="142"/>
-      <c r="B85" s="142"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="143"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="143"/>
-      <c r="I85" s="142"/>
-      <c r="J85" s="143"/>
-      <c r="K85" s="142"/>
-      <c r="L85" s="143"/>
-      <c r="M85" s="142"/>
-      <c r="N85" s="142"/>
-      <c r="O85" s="142"/>
-      <c r="P85" s="142"/>
-      <c r="Q85" s="142"/>
-      <c r="R85" s="142"/>
+      <c r="A85" s="144"/>
+      <c r="B85" s="144"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="144"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="144"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="144"/>
+      <c r="L85" s="145"/>
+      <c r="M85" s="144"/>
+      <c r="N85" s="144"/>
+      <c r="O85" s="144"/>
+      <c r="P85" s="144"/>
+      <c r="Q85" s="144"/>
+      <c r="R85" s="144"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="142"/>
-      <c r="B86" s="142"/>
-      <c r="C86" s="142"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="142"/>
-      <c r="H86" s="143"/>
-      <c r="I86" s="142"/>
-      <c r="J86" s="143"/>
-      <c r="K86" s="142"/>
-      <c r="L86" s="143"/>
-      <c r="M86" s="142"/>
-      <c r="N86" s="142"/>
-      <c r="O86" s="142"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="142"/>
-      <c r="R86" s="142"/>
+      <c r="A86" s="144"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="145"/>
+      <c r="E86" s="144"/>
+      <c r="F86" s="145"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="145"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="145"/>
+      <c r="M86" s="144"/>
+      <c r="N86" s="144"/>
+      <c r="O86" s="144"/>
+      <c r="P86" s="144"/>
+      <c r="Q86" s="144"/>
+      <c r="R86" s="144"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="142"/>
-      <c r="B87" s="142"/>
-      <c r="C87" s="142"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="143"/>
-      <c r="K87" s="142"/>
-      <c r="L87" s="143"/>
-      <c r="M87" s="142"/>
-      <c r="N87" s="142"/>
-      <c r="O87" s="142"/>
-      <c r="P87" s="142"/>
-      <c r="Q87" s="142"/>
-      <c r="R87" s="142"/>
+      <c r="A87" s="144"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="145"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="145"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="145"/>
+      <c r="M87" s="144"/>
+      <c r="N87" s="144"/>
+      <c r="O87" s="144"/>
+      <c r="P87" s="144"/>
+      <c r="Q87" s="144"/>
+      <c r="R87" s="144"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="142"/>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="143"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="143"/>
-      <c r="K88" s="142"/>
-      <c r="L88" s="143"/>
-      <c r="M88" s="142"/>
-      <c r="N88" s="142"/>
-      <c r="O88" s="142"/>
-      <c r="P88" s="142"/>
-      <c r="Q88" s="142"/>
-      <c r="R88" s="142"/>
+      <c r="A88" s="144"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="145"/>
+      <c r="E88" s="144"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="144"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="144"/>
+      <c r="J88" s="145"/>
+      <c r="K88" s="144"/>
+      <c r="L88" s="145"/>
+      <c r="M88" s="144"/>
+      <c r="N88" s="144"/>
+      <c r="O88" s="144"/>
+      <c r="P88" s="144"/>
+      <c r="Q88" s="144"/>
+      <c r="R88" s="144"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="142"/>
-      <c r="B89" s="142"/>
-      <c r="C89" s="142"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="143"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="143"/>
-      <c r="I89" s="142"/>
-      <c r="J89" s="143"/>
-      <c r="K89" s="142"/>
-      <c r="L89" s="143"/>
-      <c r="M89" s="142"/>
-      <c r="N89" s="142"/>
-      <c r="O89" s="142"/>
-      <c r="P89" s="142"/>
-      <c r="Q89" s="142"/>
-      <c r="R89" s="142"/>
+      <c r="A89" s="144"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="144"/>
+      <c r="F89" s="145"/>
+      <c r="G89" s="144"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="144"/>
+      <c r="J89" s="145"/>
+      <c r="K89" s="144"/>
+      <c r="L89" s="145"/>
+      <c r="M89" s="144"/>
+      <c r="N89" s="144"/>
+      <c r="O89" s="144"/>
+      <c r="P89" s="144"/>
+      <c r="Q89" s="144"/>
+      <c r="R89" s="144"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="142"/>
-      <c r="B90" s="142"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="143"/>
-      <c r="G90" s="142"/>
-      <c r="H90" s="143"/>
-      <c r="I90" s="142"/>
-      <c r="J90" s="143"/>
-      <c r="K90" s="142"/>
-      <c r="L90" s="143"/>
-      <c r="M90" s="142"/>
-      <c r="N90" s="142"/>
-      <c r="O90" s="142"/>
-      <c r="P90" s="142"/>
-      <c r="Q90" s="142"/>
-      <c r="R90" s="142"/>
+      <c r="A90" s="144"/>
+      <c r="B90" s="144"/>
+      <c r="C90" s="144"/>
+      <c r="D90" s="145"/>
+      <c r="E90" s="144"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="144"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="144"/>
+      <c r="J90" s="145"/>
+      <c r="K90" s="144"/>
+      <c r="L90" s="145"/>
+      <c r="M90" s="144"/>
+      <c r="N90" s="144"/>
+      <c r="O90" s="144"/>
+      <c r="P90" s="144"/>
+      <c r="Q90" s="144"/>
+      <c r="R90" s="144"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="142"/>
-      <c r="B91" s="142"/>
-      <c r="C91" s="142"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="143"/>
-      <c r="G91" s="142"/>
-      <c r="H91" s="143"/>
-      <c r="I91" s="142"/>
-      <c r="J91" s="143"/>
-      <c r="K91" s="142"/>
-      <c r="L91" s="143"/>
-      <c r="M91" s="142"/>
-      <c r="N91" s="142"/>
-      <c r="O91" s="142"/>
-      <c r="P91" s="142"/>
-      <c r="Q91" s="142"/>
-      <c r="R91" s="142"/>
+      <c r="A91" s="144"/>
+      <c r="B91" s="144"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="145"/>
+      <c r="E91" s="144"/>
+      <c r="F91" s="145"/>
+      <c r="G91" s="144"/>
+      <c r="H91" s="145"/>
+      <c r="I91" s="144"/>
+      <c r="J91" s="145"/>
+      <c r="K91" s="144"/>
+      <c r="L91" s="145"/>
+      <c r="M91" s="144"/>
+      <c r="N91" s="144"/>
+      <c r="O91" s="144"/>
+      <c r="P91" s="144"/>
+      <c r="Q91" s="144"/>
+      <c r="R91" s="144"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="142"/>
-      <c r="B92" s="142"/>
-      <c r="C92" s="142"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="142"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="142"/>
-      <c r="H92" s="143"/>
-      <c r="I92" s="142"/>
-      <c r="J92" s="143"/>
-      <c r="K92" s="142"/>
-      <c r="L92" s="143"/>
-      <c r="M92" s="142"/>
-      <c r="N92" s="142"/>
-      <c r="O92" s="142"/>
-      <c r="P92" s="142"/>
-      <c r="Q92" s="142"/>
-      <c r="R92" s="142"/>
+      <c r="A92" s="144"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="145"/>
+      <c r="E92" s="144"/>
+      <c r="F92" s="145"/>
+      <c r="G92" s="144"/>
+      <c r="H92" s="145"/>
+      <c r="I92" s="144"/>
+      <c r="J92" s="145"/>
+      <c r="K92" s="144"/>
+      <c r="L92" s="145"/>
+      <c r="M92" s="144"/>
+      <c r="N92" s="144"/>
+      <c r="O92" s="144"/>
+      <c r="P92" s="144"/>
+      <c r="Q92" s="144"/>
+      <c r="R92" s="144"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="142"/>
-      <c r="B93" s="142"/>
-      <c r="C93" s="142"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="142"/>
-      <c r="F93" s="143"/>
-      <c r="G93" s="142"/>
-      <c r="H93" s="143"/>
-      <c r="I93" s="142"/>
-      <c r="J93" s="143"/>
-      <c r="K93" s="142"/>
-      <c r="L93" s="143"/>
-      <c r="M93" s="142"/>
-      <c r="N93" s="142"/>
-      <c r="O93" s="142"/>
-      <c r="P93" s="142"/>
-      <c r="Q93" s="142"/>
-      <c r="R93" s="142"/>
+      <c r="A93" s="144"/>
+      <c r="B93" s="144"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="145"/>
+      <c r="E93" s="144"/>
+      <c r="F93" s="145"/>
+      <c r="G93" s="144"/>
+      <c r="H93" s="145"/>
+      <c r="I93" s="144"/>
+      <c r="J93" s="145"/>
+      <c r="K93" s="144"/>
+      <c r="L93" s="145"/>
+      <c r="M93" s="144"/>
+      <c r="N93" s="144"/>
+      <c r="O93" s="144"/>
+      <c r="P93" s="144"/>
+      <c r="Q93" s="144"/>
+      <c r="R93" s="144"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="142"/>
-      <c r="B94" s="142"/>
-      <c r="C94" s="142"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="143"/>
-      <c r="G94" s="142"/>
-      <c r="H94" s="143"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="142"/>
-      <c r="L94" s="143"/>
-      <c r="M94" s="142"/>
-      <c r="N94" s="142"/>
-      <c r="O94" s="142"/>
-      <c r="P94" s="142"/>
-      <c r="Q94" s="142"/>
-      <c r="R94" s="142"/>
+      <c r="A94" s="144"/>
+      <c r="B94" s="144"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="145"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="145"/>
+      <c r="G94" s="144"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="144"/>
+      <c r="J94" s="145"/>
+      <c r="K94" s="144"/>
+      <c r="L94" s="145"/>
+      <c r="M94" s="144"/>
+      <c r="N94" s="144"/>
+      <c r="O94" s="144"/>
+      <c r="P94" s="144"/>
+      <c r="Q94" s="144"/>
+      <c r="R94" s="144"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="142"/>
-      <c r="B95" s="142"/>
-      <c r="C95" s="142"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="143"/>
-      <c r="G95" s="142"/>
-      <c r="H95" s="143"/>
-      <c r="I95" s="142"/>
-      <c r="J95" s="143"/>
-      <c r="K95" s="142"/>
-      <c r="L95" s="143"/>
-      <c r="M95" s="142"/>
-      <c r="N95" s="142"/>
-      <c r="O95" s="142"/>
-      <c r="P95" s="142"/>
-      <c r="Q95" s="142"/>
-      <c r="R95" s="142"/>
+      <c r="A95" s="144"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="145"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="145"/>
+      <c r="G95" s="144"/>
+      <c r="H95" s="145"/>
+      <c r="I95" s="144"/>
+      <c r="J95" s="145"/>
+      <c r="K95" s="144"/>
+      <c r="L95" s="145"/>
+      <c r="M95" s="144"/>
+      <c r="N95" s="144"/>
+      <c r="O95" s="144"/>
+      <c r="P95" s="144"/>
+      <c r="Q95" s="144"/>
+      <c r="R95" s="144"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="142"/>
-      <c r="B96" s="142"/>
-      <c r="C96" s="142"/>
-      <c r="D96" s="143"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="143"/>
-      <c r="G96" s="142"/>
-      <c r="H96" s="143"/>
-      <c r="I96" s="142"/>
-      <c r="J96" s="143"/>
-      <c r="K96" s="142"/>
-      <c r="L96" s="143"/>
-      <c r="M96" s="142"/>
-      <c r="N96" s="142"/>
-      <c r="O96" s="142"/>
-      <c r="P96" s="142"/>
-      <c r="Q96" s="142"/>
-      <c r="R96" s="142"/>
+      <c r="A96" s="144"/>
+      <c r="B96" s="144"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="145"/>
+      <c r="E96" s="144"/>
+      <c r="F96" s="145"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="145"/>
+      <c r="I96" s="144"/>
+      <c r="J96" s="145"/>
+      <c r="K96" s="144"/>
+      <c r="L96" s="145"/>
+      <c r="M96" s="144"/>
+      <c r="N96" s="144"/>
+      <c r="O96" s="144"/>
+      <c r="P96" s="144"/>
+      <c r="Q96" s="144"/>
+      <c r="R96" s="144"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="142"/>
-      <c r="B97" s="142"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="143"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="143"/>
-      <c r="G97" s="142"/>
-      <c r="H97" s="143"/>
-      <c r="I97" s="142"/>
-      <c r="J97" s="143"/>
-      <c r="K97" s="142"/>
-      <c r="L97" s="143"/>
-      <c r="M97" s="142"/>
-      <c r="N97" s="142"/>
-      <c r="O97" s="142"/>
-      <c r="P97" s="142"/>
-      <c r="Q97" s="142"/>
-      <c r="R97" s="142"/>
+      <c r="A97" s="144"/>
+      <c r="B97" s="144"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="145"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="145"/>
+      <c r="G97" s="144"/>
+      <c r="H97" s="145"/>
+      <c r="I97" s="144"/>
+      <c r="J97" s="145"/>
+      <c r="K97" s="144"/>
+      <c r="L97" s="145"/>
+      <c r="M97" s="144"/>
+      <c r="N97" s="144"/>
+      <c r="O97" s="144"/>
+      <c r="P97" s="144"/>
+      <c r="Q97" s="144"/>
+      <c r="R97" s="144"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="142"/>
-      <c r="B98" s="142"/>
-      <c r="C98" s="142"/>
-      <c r="D98" s="143"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="143"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="143"/>
-      <c r="I98" s="142"/>
-      <c r="J98" s="143"/>
-      <c r="K98" s="142"/>
-      <c r="L98" s="143"/>
-      <c r="M98" s="142"/>
-      <c r="N98" s="142"/>
-      <c r="O98" s="142"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="142"/>
-      <c r="R98" s="142"/>
+      <c r="A98" s="144"/>
+      <c r="B98" s="144"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="145"/>
+      <c r="E98" s="144"/>
+      <c r="F98" s="145"/>
+      <c r="G98" s="144"/>
+      <c r="H98" s="145"/>
+      <c r="I98" s="144"/>
+      <c r="J98" s="145"/>
+      <c r="K98" s="144"/>
+      <c r="L98" s="145"/>
+      <c r="M98" s="144"/>
+      <c r="N98" s="144"/>
+      <c r="O98" s="144"/>
+      <c r="P98" s="144"/>
+      <c r="Q98" s="144"/>
+      <c r="R98" s="144"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="142"/>
-      <c r="B99" s="142"/>
-      <c r="C99" s="142"/>
-      <c r="D99" s="143"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="143"/>
-      <c r="G99" s="142"/>
-      <c r="H99" s="143"/>
-      <c r="I99" s="142"/>
-      <c r="J99" s="143"/>
-      <c r="K99" s="142"/>
-      <c r="L99" s="143"/>
-      <c r="M99" s="142"/>
-      <c r="N99" s="142"/>
-      <c r="O99" s="142"/>
-      <c r="P99" s="142"/>
-      <c r="Q99" s="142"/>
-      <c r="R99" s="142"/>
+      <c r="A99" s="144"/>
+      <c r="B99" s="144"/>
+      <c r="C99" s="144"/>
+      <c r="D99" s="145"/>
+      <c r="E99" s="144"/>
+      <c r="F99" s="145"/>
+      <c r="G99" s="144"/>
+      <c r="H99" s="145"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="145"/>
+      <c r="K99" s="144"/>
+      <c r="L99" s="145"/>
+      <c r="M99" s="144"/>
+      <c r="N99" s="144"/>
+      <c r="O99" s="144"/>
+      <c r="P99" s="144"/>
+      <c r="Q99" s="144"/>
+      <c r="R99" s="144"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="142"/>
-      <c r="B100" s="142"/>
-      <c r="C100" s="142"/>
-      <c r="D100" s="142"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="142"/>
-      <c r="H100" s="142"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
-      <c r="L100" s="142"/>
-      <c r="M100" s="142"/>
-      <c r="N100" s="142"/>
-      <c r="O100" s="142"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="142"/>
-      <c r="R100" s="142"/>
+      <c r="A100" s="144"/>
+      <c r="B100" s="144"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="144"/>
+      <c r="E100" s="144"/>
+      <c r="F100" s="144"/>
+      <c r="G100" s="144"/>
+      <c r="H100" s="144"/>
+      <c r="I100" s="144"/>
+      <c r="J100" s="144"/>
+      <c r="K100" s="144"/>
+      <c r="L100" s="144"/>
+      <c r="M100" s="144"/>
+      <c r="N100" s="144"/>
+      <c r="O100" s="144"/>
+      <c r="P100" s="144"/>
+      <c r="Q100" s="144"/>
+      <c r="R100" s="144"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="142"/>
-      <c r="B101" s="142"/>
-      <c r="C101" s="142"/>
-      <c r="D101" s="142"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="142"/>
-      <c r="G101" s="142"/>
-      <c r="H101" s="142"/>
-      <c r="I101" s="142"/>
-      <c r="J101" s="142"/>
-      <c r="K101" s="142"/>
-      <c r="L101" s="142"/>
-      <c r="M101" s="142"/>
-      <c r="N101" s="142"/>
-      <c r="O101" s="142"/>
-      <c r="P101" s="142"/>
-      <c r="Q101" s="142"/>
-      <c r="R101" s="142"/>
+      <c r="A101" s="144"/>
+      <c r="B101" s="144"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="144"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="144"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="144"/>
+      <c r="I101" s="144"/>
+      <c r="J101" s="144"/>
+      <c r="K101" s="144"/>
+      <c r="L101" s="144"/>
+      <c r="M101" s="144"/>
+      <c r="N101" s="144"/>
+      <c r="O101" s="144"/>
+      <c r="P101" s="144"/>
+      <c r="Q101" s="144"/>
+      <c r="R101" s="144"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="142"/>
-      <c r="B102" s="142"/>
-      <c r="C102" s="142"/>
-      <c r="D102" s="142"/>
-      <c r="E102" s="142"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="142"/>
-      <c r="H102" s="142"/>
-      <c r="I102" s="142"/>
-      <c r="J102" s="142"/>
-      <c r="K102" s="142"/>
-      <c r="L102" s="142"/>
-      <c r="M102" s="142"/>
-      <c r="N102" s="142"/>
-      <c r="O102" s="142"/>
-      <c r="P102" s="142"/>
-      <c r="Q102" s="142"/>
-      <c r="R102" s="142"/>
+      <c r="A102" s="144"/>
+      <c r="B102" s="144"/>
+      <c r="C102" s="144"/>
+      <c r="D102" s="144"/>
+      <c r="E102" s="144"/>
+      <c r="F102" s="144"/>
+      <c r="G102" s="144"/>
+      <c r="H102" s="144"/>
+      <c r="I102" s="144"/>
+      <c r="J102" s="144"/>
+      <c r="K102" s="144"/>
+      <c r="L102" s="144"/>
+      <c r="M102" s="144"/>
+      <c r="N102" s="144"/>
+      <c r="O102" s="144"/>
+      <c r="P102" s="144"/>
+      <c r="Q102" s="144"/>
+      <c r="R102" s="144"/>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="150"/>
+      <c r="D103" s="154"/>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="150"/>
+      <c r="D104" s="154"/>
     </row>
     <row r="105" spans="4:4">
-      <c r="D105" s="150"/>
+      <c r="D105" s="154"/>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="150"/>
+      <c r="D106" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3998,10 +4018,10 @@
   <sheetPr/>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5134,11 +5154,18 @@
   <sheetPr/>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="23724" topLeftCell="W1" activePane="topLeft"/>
+      <selection activeCell="N15" sqref="N15"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="12.8888888888889"/>
+    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="11" max="11" width="12.8888888888889"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
@@ -5559,7 +5586,7 @@
       <c r="D8" s="12">
         <v>6.163</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="123">
         <v>0.3299</v>
       </c>
       <c r="F8" s="12">
@@ -5568,7 +5595,7 @@
       <c r="G8" s="12">
         <v>106.8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="123">
         <v>11.73</v>
       </c>
       <c r="I8" s="12">
@@ -5577,7 +5604,7 @@
       <c r="J8" s="12">
         <v>108.2</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="123">
         <v>18.97</v>
       </c>
       <c r="L8" s="12">
@@ -5941,961 +5968,406 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="126">
         <v>65.8914649450391</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15" s="126">
         <v>117.70028057157</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="127">
         <v>97.1086752893185</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="126">
         <v>1200.77222807041</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="126">
         <v>1901.50739846092</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="127">
         <v>1502.15628235684</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="126">
         <v>154647.66534039</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="126">
         <v>295478.321758351</v>
       </c>
-      <c r="K15" s="125">
+      <c r="K15" s="127">
         <v>228903.233193021</v>
       </c>
-      <c r="L15" s="125">
+      <c r="L15" s="126">
         <v>-195.13422</v>
       </c>
-      <c r="M15" s="125">
+      <c r="M15" s="126">
         <v>-123.963195</v>
       </c>
-      <c r="N15" s="125">
+      <c r="N15" s="126">
         <v>-156.199454</v>
       </c>
-      <c r="O15" s="125">
+      <c r="O15" s="126">
         <v>125.701081678641</v>
       </c>
-      <c r="P15" s="125">
+      <c r="P15" s="126">
         <v>333.405519519672</v>
       </c>
-      <c r="Q15" s="125">
+      <c r="Q15" s="126">
         <v>243.705611867695</v>
       </c>
-      <c r="R15" s="125">
+      <c r="R15" s="126">
         <v>1458.219468</v>
       </c>
-      <c r="S15" s="125">
+      <c r="S15" s="126">
         <v>4019.975187</v>
       </c>
       <c r="T15" s="132">
         <v>2677.369081</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="128">
-        <v>5.732</v>
-      </c>
-      <c r="D20" s="128">
-        <v>7.246</v>
-      </c>
-      <c r="E20" s="128">
-        <v>5.737</v>
-      </c>
-      <c r="F20" s="128">
-        <v>70.52</v>
-      </c>
-      <c r="G20" s="128">
-        <v>105.7</v>
-      </c>
-      <c r="H20" s="128">
-        <v>70.52</v>
-      </c>
-      <c r="I20" s="128">
-        <v>20.79</v>
-      </c>
-      <c r="J20" s="128">
-        <v>261.7</v>
-      </c>
-      <c r="K20" s="128">
-        <v>37.02</v>
-      </c>
-      <c r="L20" s="128">
-        <v>-115.7</v>
-      </c>
-      <c r="M20" s="128">
-        <v>-29.46</v>
-      </c>
-      <c r="N20" s="128">
-        <v>-115.6</v>
-      </c>
-      <c r="O20" s="128">
-        <v>94.69</v>
-      </c>
-      <c r="P20" s="128">
-        <v>241.3</v>
-      </c>
-      <c r="Q20" s="128">
-        <v>111.3</v>
-      </c>
-      <c r="R20" s="128">
-        <v>73.07</v>
-      </c>
-      <c r="S20" s="128">
-        <v>269.3</v>
-      </c>
-      <c r="T20" s="128">
-        <v>73.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="129">
-        <v>5.41316530045789</v>
-      </c>
-      <c r="D21" s="130">
-        <v>41.297212</v>
-      </c>
-      <c r="E21" s="130">
-        <v>19.547324</v>
-      </c>
-      <c r="F21" s="130">
-        <v>60.331559</v>
-      </c>
-      <c r="G21" s="130">
-        <v>775.529852</v>
-      </c>
-      <c r="H21" s="130">
-        <v>324.835066</v>
-      </c>
-      <c r="I21" s="129">
-        <v>7100.00093905429</v>
-      </c>
-      <c r="J21" s="129">
-        <v>98199.6487514496</v>
-      </c>
-      <c r="K21" s="129">
-        <v>46943.3370331246</v>
-      </c>
-      <c r="L21" s="129">
-        <v>-199.024471</v>
-      </c>
-      <c r="M21" s="129">
-        <v>-108.960263</v>
-      </c>
-      <c r="N21" s="129">
-        <v>-144.252724</v>
-      </c>
-      <c r="O21" s="129">
-        <v>68.9465319363335</v>
-      </c>
-      <c r="P21" s="129">
-        <v>176.766026234169</v>
-      </c>
-      <c r="Q21" s="129">
-        <v>131.249049276321</v>
-      </c>
-      <c r="R21" s="129">
-        <v>184.703450090143</v>
-      </c>
-      <c r="S21" s="129">
-        <v>1032.54858885882</v>
-      </c>
-      <c r="T21" s="129">
-        <v>485.147368707033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="128">
-        <v>3.416</v>
-      </c>
-      <c r="D22" s="128">
-        <v>6.511</v>
-      </c>
-      <c r="E22" s="128">
-        <v>3.417</v>
-      </c>
-      <c r="F22" s="128">
-        <v>68.63</v>
-      </c>
-      <c r="G22" s="128">
-        <v>94.04</v>
-      </c>
-      <c r="H22" s="128">
-        <v>68.64</v>
-      </c>
-      <c r="I22" s="128">
-        <v>15.06</v>
-      </c>
-      <c r="J22" s="128">
-        <v>204.8</v>
-      </c>
-      <c r="K22" s="128">
-        <v>16.22</v>
-      </c>
-      <c r="L22" s="128">
-        <v>-115.8</v>
-      </c>
-      <c r="M22" s="128">
-        <v>-26.85</v>
-      </c>
-      <c r="N22" s="128">
-        <v>-115.4</v>
-      </c>
-      <c r="O22" s="128">
-        <v>50.84</v>
-      </c>
-      <c r="P22" s="128">
-        <v>257.7</v>
-      </c>
-      <c r="Q22" s="128">
-        <v>52.15</v>
-      </c>
-      <c r="R22" s="128">
-        <v>70.07</v>
-      </c>
-      <c r="S22" s="128">
-        <v>390.3</v>
-      </c>
-      <c r="T22" s="128">
-        <v>78.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="130">
-        <v>5.413165</v>
-      </c>
-      <c r="D23" s="130">
-        <v>48.997081</v>
-      </c>
-      <c r="E23" s="130">
-        <v>22.431955</v>
-      </c>
-      <c r="F23" s="130">
-        <v>46.629852</v>
-      </c>
-      <c r="G23" s="130">
-        <v>554.297588</v>
-      </c>
-      <c r="H23" s="130">
-        <v>268.777047</v>
-      </c>
-      <c r="I23" s="129">
-        <v>12679.3748798183</v>
-      </c>
-      <c r="J23" s="129">
-        <v>101276.838933367</v>
-      </c>
-      <c r="K23" s="129">
-        <v>38624.4760434918</v>
-      </c>
-      <c r="L23" s="129">
-        <v>-177.482707</v>
-      </c>
-      <c r="M23" s="129">
-        <v>-104.444544</v>
-      </c>
-      <c r="N23" s="129">
-        <v>-153.079792</v>
-      </c>
-      <c r="O23" s="129">
-        <v>83.7050611309228</v>
-      </c>
-      <c r="P23" s="129">
-        <v>183.256938753906</v>
-      </c>
-      <c r="Q23" s="129">
-        <v>123.930432231649</v>
-      </c>
-      <c r="R23" s="129">
-        <v>157.989947490972</v>
-      </c>
-      <c r="S23" s="129">
-        <v>1676.00426417611</v>
-      </c>
-      <c r="T23" s="129">
-        <v>532.703277259505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="128">
-        <v>6.207</v>
-      </c>
-      <c r="D24" s="128">
-        <v>6.246</v>
-      </c>
-      <c r="E24" s="128">
-        <v>6.208</v>
-      </c>
-      <c r="F24" s="128">
-        <v>64.04</v>
-      </c>
-      <c r="G24" s="128">
-        <v>80.4</v>
-      </c>
-      <c r="H24" s="128">
-        <v>64.04</v>
-      </c>
-      <c r="I24" s="128">
-        <v>22.86</v>
-      </c>
-      <c r="J24" s="128">
-        <v>59.24</v>
-      </c>
-      <c r="K24" s="128">
-        <v>22.87</v>
-      </c>
-      <c r="L24" s="128">
-        <v>-114.1</v>
-      </c>
-      <c r="M24" s="128">
-        <v>-27.91</v>
-      </c>
-      <c r="N24" s="128">
-        <v>-114</v>
-      </c>
-      <c r="O24" s="128">
-        <v>122.6</v>
-      </c>
-      <c r="P24" s="128">
-        <v>256.6</v>
-      </c>
-      <c r="Q24" s="128">
-        <v>187.3</v>
-      </c>
-      <c r="R24" s="128">
-        <v>34.71</v>
-      </c>
-      <c r="S24" s="128">
-        <v>349.2</v>
-      </c>
-      <c r="T24" s="128">
-        <v>34.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="129">
-        <v>1.38219173404806</v>
-      </c>
-      <c r="D25" s="129">
-        <v>11.9121645008993</v>
-      </c>
-      <c r="E25" s="129">
-        <v>4.97074635114564</v>
-      </c>
-      <c r="F25" s="129">
-        <v>13.4567043517467</v>
-      </c>
-      <c r="G25" s="129">
-        <v>226.539753851143</v>
-      </c>
-      <c r="H25" s="129">
-        <v>48.875705439432</v>
-      </c>
-      <c r="I25" s="129">
-        <v>1319.20923291304</v>
-      </c>
-      <c r="J25" s="129">
-        <v>25916.3238747406</v>
-      </c>
-      <c r="K25" s="129">
-        <v>8215.74409037275</v>
-      </c>
-      <c r="L25" s="129">
-        <v>-121.540859</v>
-      </c>
-      <c r="M25" s="129">
-        <v>-25.247861</v>
-      </c>
-      <c r="N25" s="129">
-        <v>-61.639065</v>
-      </c>
-      <c r="O25" s="129">
-        <v>55.3234089269564</v>
-      </c>
-      <c r="P25" s="129">
-        <v>118.845622656941</v>
-      </c>
-      <c r="Q25" s="129">
-        <v>75.3185612618339</v>
-      </c>
-      <c r="R25" s="130">
-        <v>48.246923</v>
-      </c>
-      <c r="S25" s="130">
-        <v>421.574655</v>
-      </c>
-      <c r="T25" s="130">
-        <v>125.513187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="128">
-        <v>0.011</v>
-      </c>
-      <c r="D26" s="128">
-        <v>8.099</v>
-      </c>
-      <c r="E26" s="128">
-        <v>2.81</v>
-      </c>
-      <c r="F26" s="128">
-        <v>0.024</v>
-      </c>
-      <c r="G26" s="128">
-        <v>87.41</v>
-      </c>
-      <c r="H26" s="128">
-        <v>5.706</v>
-      </c>
-      <c r="I26" s="128">
-        <v>2.36</v>
-      </c>
-      <c r="J26" s="128">
-        <v>381</v>
-      </c>
-      <c r="K26" s="128">
-        <v>17.58</v>
-      </c>
-      <c r="L26" s="128">
-        <v>-117.7</v>
-      </c>
-      <c r="M26" s="128">
-        <v>-26.1</v>
-      </c>
-      <c r="N26" s="128">
-        <v>-117.1</v>
-      </c>
-      <c r="O26" s="128">
-        <v>12.68</v>
-      </c>
-      <c r="P26" s="128">
-        <v>173.1</v>
-      </c>
-      <c r="Q26" s="128">
-        <v>31.98</v>
-      </c>
-      <c r="R26" s="128">
-        <v>29.35</v>
-      </c>
-      <c r="S26" s="128">
-        <v>369.1</v>
-      </c>
-      <c r="T26" s="128">
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="129">
-        <v>2.07185706942476</v>
-      </c>
-      <c r="D27" s="129">
-        <v>28.1795159598373</v>
-      </c>
-      <c r="E27" s="129">
-        <v>12.3759452683365</v>
-      </c>
-      <c r="F27" s="129">
-        <v>24.748421853285</v>
-      </c>
-      <c r="G27" s="129">
-        <v>356.706536175126</v>
-      </c>
-      <c r="H27" s="129">
-        <v>112.007876032323</v>
-      </c>
-      <c r="I27" s="129">
-        <v>3280.51383561932</v>
-      </c>
-      <c r="J27" s="129">
-        <v>86201.6018039536</v>
-      </c>
-      <c r="K27" s="129">
-        <v>17975.8765615599</v>
-      </c>
-      <c r="L27" s="129">
-        <v>-297.15237</v>
-      </c>
-      <c r="M27" s="129">
-        <v>-210.017649</v>
-      </c>
-      <c r="N27" s="129">
-        <v>-258.641108</v>
-      </c>
-      <c r="O27" s="129">
-        <v>86.439786437951</v>
-      </c>
-      <c r="P27" s="129">
-        <v>221.656407270206</v>
-      </c>
-      <c r="Q27" s="129">
-        <v>147.272709308365</v>
-      </c>
-      <c r="R27" s="129">
-        <v>141.673211544086</v>
-      </c>
-      <c r="S27" s="129">
-        <v>1478.19598820443</v>
-      </c>
-      <c r="T27" s="129">
-        <v>427.812701585942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="128">
-        <v>5.589</v>
-      </c>
-      <c r="D28" s="128">
-        <v>6.389</v>
-      </c>
-      <c r="E28" s="128">
-        <v>5.589</v>
-      </c>
-      <c r="F28" s="128">
-        <v>73.71</v>
-      </c>
-      <c r="G28" s="128">
-        <v>89.18</v>
-      </c>
-      <c r="H28" s="128">
-        <v>73.72</v>
-      </c>
-      <c r="I28" s="128">
-        <v>24.37</v>
-      </c>
-      <c r="J28" s="128">
-        <v>47.94</v>
-      </c>
-      <c r="K28" s="128">
-        <v>24.37</v>
-      </c>
-      <c r="L28" s="128">
-        <v>-113.2</v>
-      </c>
-      <c r="M28" s="128">
-        <v>-27.72</v>
-      </c>
-      <c r="N28" s="128">
-        <v>-113.1</v>
-      </c>
-      <c r="O28" s="128">
-        <v>154</v>
-      </c>
-      <c r="P28" s="128">
-        <v>251.4</v>
-      </c>
-      <c r="Q28" s="128">
-        <v>154.1</v>
-      </c>
-      <c r="R28" s="128">
-        <v>27.08</v>
-      </c>
-      <c r="S28" s="128">
-        <v>260.3</v>
-      </c>
-      <c r="T28" s="128">
-        <v>27.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="130">
-        <v>0.595806042294373</v>
-      </c>
-      <c r="D29" s="129">
-        <v>13.3700640295421</v>
-      </c>
-      <c r="E29" s="129">
-        <v>3.56505016494343</v>
-      </c>
-      <c r="F29" s="130">
-        <v>4.32643010034693</v>
-      </c>
-      <c r="G29" s="129">
-        <v>62.2152240402045</v>
-      </c>
-      <c r="H29" s="129">
-        <v>28.3953140674309</v>
-      </c>
-      <c r="I29" s="130">
-        <v>554.99529370759</v>
-      </c>
-      <c r="J29" s="129">
-        <v>19672.8147429999</v>
-      </c>
-      <c r="K29" s="129">
-        <v>6234.69430920148</v>
-      </c>
-      <c r="L29" s="129">
-        <v>-108.340128</v>
-      </c>
-      <c r="M29" s="129">
-        <v>-25.238287</v>
-      </c>
-      <c r="N29" s="129">
-        <v>-51.198507</v>
-      </c>
-      <c r="O29" s="130">
-        <v>36.4427698277364</v>
-      </c>
-      <c r="P29" s="129">
-        <v>106.180540162374</v>
-      </c>
-      <c r="Q29" s="129">
-        <v>68.1726933021853</v>
-      </c>
-      <c r="R29" s="130">
-        <v>44.043909775367</v>
-      </c>
-      <c r="S29" s="129">
-        <v>182.840423303567</v>
-      </c>
-      <c r="T29" s="129">
-        <v>94.5980790296842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="131" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="128">
-        <v>0.0027</v>
-      </c>
-      <c r="D30" s="128">
-        <v>6.163</v>
-      </c>
-      <c r="E30" s="128">
-        <v>0.3299</v>
-      </c>
-      <c r="F30" s="128">
-        <v>0.1023</v>
-      </c>
-      <c r="G30" s="128">
-        <v>106.8</v>
-      </c>
-      <c r="H30" s="128">
-        <v>11.73</v>
-      </c>
-      <c r="I30" s="128">
-        <v>4.577</v>
-      </c>
-      <c r="J30" s="128">
-        <v>108.2</v>
-      </c>
-      <c r="K30" s="128">
-        <v>18.97</v>
-      </c>
-      <c r="L30" s="128">
-        <v>-117.8</v>
-      </c>
-      <c r="M30" s="128">
-        <v>-27.75</v>
-      </c>
-      <c r="N30" s="128">
-        <v>-117.7</v>
-      </c>
-      <c r="O30" s="128">
-        <v>2.669</v>
-      </c>
-      <c r="P30" s="128">
-        <v>232.5</v>
-      </c>
-      <c r="Q30" s="128">
-        <v>3.691</v>
-      </c>
-      <c r="R30" s="128">
-        <v>28.59</v>
-      </c>
-      <c r="S30" s="128">
-        <v>316.1</v>
-      </c>
-      <c r="T30" s="128">
-        <v>32.69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="131"/>
-      <c r="B31" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="129">
-        <v>65.8914649450391</v>
-      </c>
-      <c r="D31" s="129">
-        <v>117.70028057157</v>
-      </c>
-      <c r="E31" s="129">
-        <v>97.1086752893185</v>
-      </c>
-      <c r="F31" s="129">
-        <v>1200.77222807041</v>
-      </c>
-      <c r="G31" s="129">
-        <v>1901.50739846092</v>
-      </c>
-      <c r="H31" s="129">
-        <v>1502.15628235684</v>
-      </c>
-      <c r="I31" s="129">
-        <v>154647.66534039</v>
-      </c>
-      <c r="J31" s="129">
-        <v>295478.321758351</v>
-      </c>
-      <c r="K31" s="129">
-        <v>228903.233193021</v>
-      </c>
-      <c r="L31" s="129">
-        <v>-195.13422</v>
-      </c>
-      <c r="M31" s="129">
-        <v>-123.963195</v>
-      </c>
-      <c r="N31" s="129">
-        <v>-156.199454</v>
-      </c>
-      <c r="O31" s="129">
-        <v>125.701081678641</v>
-      </c>
-      <c r="P31" s="129">
-        <v>333.405519519672</v>
-      </c>
-      <c r="Q31" s="129">
-        <v>243.705611867695</v>
-      </c>
-      <c r="R31" s="130">
-        <v>1458.219468</v>
-      </c>
-      <c r="S31" s="130">
-        <v>4019.975187</v>
-      </c>
-      <c r="T31" s="130">
-        <v>2677.369081</v>
-      </c>
+    <row r="17" s="1" customFormat="1" spans="1:20">
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:20">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:20">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:20">
+      <c r="A20" s="130"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:20">
+      <c r="A21" s="130"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:20">
+      <c r="A22" s="130"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:20">
+      <c r="A23" s="130"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:20">
+      <c r="A24" s="130"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:20">
+      <c r="A25" s="130"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:20">
+      <c r="A26" s="130"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:20">
+      <c r="A27" s="130"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:20">
+      <c r="A28" s="130"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:20">
+      <c r="A29" s="130"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:20">
+      <c r="A30" s="128"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:20">
+      <c r="A31" s="128"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7312,8 +6784,10 @@
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8103,8 +7577,8 @@
   <sheetPr/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9462,8 +8936,8 @@
   <sheetPr/>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
